--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G497"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13370,6 +13370,276 @@
       <c r="G497" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>365.1253846153846</v>
+      </c>
+      <c r="C498" t="n">
+        <v>364.7753846153847</v>
+      </c>
+      <c r="D498" t="n">
+        <v>373.6453846153846</v>
+      </c>
+      <c r="E498" t="n">
+        <v>378.4145454545454</v>
+      </c>
+      <c r="F498" t="n">
+        <v>386.9022222222222</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>380.2323076923077</v>
+      </c>
+      <c r="C499" t="n">
+        <v>380.3123076923077</v>
+      </c>
+      <c r="D499" t="n">
+        <v>387.6623076923077</v>
+      </c>
+      <c r="E499" t="n">
+        <v>397.710909090909</v>
+      </c>
+      <c r="F499" t="n">
+        <v>407.4277777777777</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>371.6023076923077</v>
+      </c>
+      <c r="C500" t="n">
+        <v>372.2423076923077</v>
+      </c>
+      <c r="D500" t="n">
+        <v>375.7423076923077</v>
+      </c>
+      <c r="E500" t="n">
+        <v>382.0809090909091</v>
+      </c>
+      <c r="F500" t="n">
+        <v>391.6377777777778</v>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>373.5392307692308</v>
+      </c>
+      <c r="C501" t="n">
+        <v>377.9892307692308</v>
+      </c>
+      <c r="D501" t="n">
+        <v>394.1292307692308</v>
+      </c>
+      <c r="E501" t="n">
+        <v>402.0990909090909</v>
+      </c>
+      <c r="F501" t="n">
+        <v>395.9744444444444</v>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>379.8823076923077</v>
+      </c>
+      <c r="C502" t="n">
+        <v>392.3623076923077</v>
+      </c>
+      <c r="D502" t="n">
+        <v>396.1323076923077</v>
+      </c>
+      <c r="E502" t="n">
+        <v>400.9263636363637</v>
+      </c>
+      <c r="F502" t="n">
+        <v>394.3966666666667</v>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>389.95</v>
+      </c>
+      <c r="C503" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="D503" t="n">
+        <v>402.54</v>
+      </c>
+      <c r="E503" t="n">
+        <v>406.2872727272728</v>
+      </c>
+      <c r="F503" t="n">
+        <v>404.5855555555555</v>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>373.7207692307693</v>
+      </c>
+      <c r="C504" t="n">
+        <v>389.1207692307692</v>
+      </c>
+      <c r="D504" t="n">
+        <v>387.8007692307692</v>
+      </c>
+      <c r="E504" t="n">
+        <v>395.4954545454545</v>
+      </c>
+      <c r="F504" t="n">
+        <v>399.4788888888889</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>377.2638461538461</v>
+      </c>
+      <c r="C505" t="n">
+        <v>372.4238461538461</v>
+      </c>
+      <c r="D505" t="n">
+        <v>388.3138461538462</v>
+      </c>
+      <c r="E505" t="n">
+        <v>388.5227272727273</v>
+      </c>
+      <c r="F505" t="n">
+        <v>388.8611111111111</v>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>385.3615384615384</v>
+      </c>
+      <c r="C506" t="n">
+        <v>390.8215384615385</v>
+      </c>
+      <c r="D506" t="n">
+        <v>394.7615384615385</v>
+      </c>
+      <c r="E506" t="n">
+        <v>397.1472727272728</v>
+      </c>
+      <c r="F506" t="n">
+        <v>396.27</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>378.1769230769231</v>
+      </c>
+      <c r="C507" t="n">
+        <v>373.3969230769231</v>
+      </c>
+      <c r="D507" t="n">
+        <v>380.3469230769231</v>
+      </c>
+      <c r="E507" t="n">
+        <v>388.6154545454546</v>
+      </c>
+      <c r="F507" t="n">
+        <v>400.05</v>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19132,6 +19402,106 @@
       </c>
       <c r="B574" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -19300,28 +19670,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2389207948319571</v>
+        <v>0.2108093406452658</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03662826036067413</v>
+        <v>0.02938933851583869</v>
       </c>
       <c r="M2" t="n">
-        <v>6.881560855925782</v>
+        <v>6.927414933911121</v>
       </c>
       <c r="N2" t="n">
-        <v>82.14481044241353</v>
+        <v>82.23878353224278</v>
       </c>
       <c r="O2" t="n">
-        <v>9.063377430208538</v>
+        <v>9.068560168639936</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0944046249107</v>
+        <v>378.3621273694258</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19377,28 +19747,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2742481822566423</v>
+        <v>0.2427508419131214</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04853275655582734</v>
+        <v>0.03852577468418927</v>
       </c>
       <c r="M3" t="n">
-        <v>7.219396868580913</v>
+        <v>7.304749941246515</v>
       </c>
       <c r="N3" t="n">
-        <v>80.69198472800612</v>
+        <v>82.27168744038757</v>
       </c>
       <c r="O3" t="n">
-        <v>8.982871741709669</v>
+        <v>9.070374162094282</v>
       </c>
       <c r="P3" t="n">
-        <v>381.7495559157618</v>
+        <v>382.0511766575976</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19454,28 +19824,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08416408427680669</v>
+        <v>0.05562015876645943</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K4" t="n">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005912194545425797</v>
+        <v>0.002596174444106092</v>
       </c>
       <c r="M4" t="n">
-        <v>6.139178346719726</v>
+        <v>6.215508634562844</v>
       </c>
       <c r="N4" t="n">
-        <v>65.36226300052297</v>
+        <v>66.66173254698448</v>
       </c>
       <c r="O4" t="n">
-        <v>8.084693129644624</v>
+        <v>8.164663651797573</v>
       </c>
       <c r="P4" t="n">
-        <v>393.2561108518242</v>
+        <v>393.5283348990396</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19531,28 +19901,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007862573799440088</v>
+        <v>-0.01788118121096775</v>
       </c>
       <c r="J5" t="n">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K5" t="n">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L5" t="n">
-        <v>5.701849746797549e-07</v>
+        <v>0.0002978357920286889</v>
       </c>
       <c r="M5" t="n">
-        <v>5.788692782511871</v>
+        <v>5.845110017477683</v>
       </c>
       <c r="N5" t="n">
-        <v>59.88167469412402</v>
+        <v>60.61048912288474</v>
       </c>
       <c r="O5" t="n">
-        <v>7.738325057409001</v>
+        <v>7.785273863062542</v>
       </c>
       <c r="P5" t="n">
-        <v>398.3613627190684</v>
+        <v>398.5386726390731</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19608,28 +19978,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09631207380104846</v>
+        <v>-0.1191425352079734</v>
       </c>
       <c r="J6" t="n">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001994337227084864</v>
+        <v>0.003179940264930403</v>
       </c>
       <c r="M6" t="n">
-        <v>11.05090983931337</v>
+        <v>10.9299506761445</v>
       </c>
       <c r="N6" t="n">
-        <v>257.8734180652713</v>
+        <v>253.3971031556507</v>
       </c>
       <c r="O6" t="n">
-        <v>16.05843759726553</v>
+        <v>15.9184516569813</v>
       </c>
       <c r="P6" t="n">
-        <v>404.286913250544</v>
+        <v>404.5014850757844</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19666,7 +20036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G497"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37079,6 +37449,376 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-35.01272407898241,173.85251657019583</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-35.013174704209916,173.85321359585586</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-35.013420963936824,173.8540605022641</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-35.01366504929644,173.8548545923725</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-35.01352150213155,173.85568639076735</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-35.0126164250193,173.85261801084283</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-35.013055418306514,173.85330288813108</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-35.01330596192219,173.85412422191456</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-35.01349318470939,173.85488755012108</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-35.01333731757347,173.85566436687063</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-35.01267792356869,173.85256006176283</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-35.0131173763506,173.8532565090534</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-35.013403759708225,173.8540700346958</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-35.01363239454,173.85486085444794</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-35.01347900797422,173.8556813095123</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-35.01266412079474,173.85257306790132</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-35.01307325390959,173.85328953718837</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-35.01325290396257,173.85415361989624</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-35.01345410101974,173.85489504501726</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-35.01344009321629,173.85567665627042</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-35.01261891916725,173.8526156606501</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-35.012962903474815,173.85337214052822</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-35.0132364696889,173.8541627256748</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-35.01346454600833,173.8548930420314</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-35.01345425128865,173.8556783492249</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-35.012547175394786,173.85268326350064</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-35.01294418789387,173.85338615013896</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-35.01318389767985,173.85419185435097</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-35.01341679864539,173.85490219831254</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-35.0133628220455,173.85566741656527</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-35.01266282712721,173.85257428690377</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-35.01298779064752,173.8533535111402</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-35.013304825912655,173.85412485134717</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-35.013512916830905,173.85488376618193</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-35.01340864634262,173.8556728960062</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-35.01263757868152,173.8525980781046</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-35.013115982575336,173.8532575523734</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-35.0133006163662,173.85412718374454</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-35.01357501997805,173.85487185693256</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-35.01350392418714,173.85568428887726</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-35.012579873412996,173.8526524527723</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-35.01297473285506,173.8533632856022</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-35.01324771618501,173.85415649430138</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-35.01349820478136,173.85488658744492</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-35.01343744107033,173.85567633913956</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-35.01263107197103,173.85260420926926</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-35.01310851170348,173.85326314474497</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-35.01336598108771,173.854090966867</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-35.01357419409526,173.85487201530862</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-35.01340352151917,173.85567228320502</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -19515,7 +19515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19606,35 +19606,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19693,27 +19698,28 @@
       <c r="P2" t="n">
         <v>378.3621273694258</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.8500647293171 -35.01532598631315, 173.85628887953388 -35.00872046809706)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.8500647293171</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.01532598631315</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.8562888795339</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.00872046809706</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.8531768044255</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.01202322720511</v>
       </c>
     </row>
@@ -19770,27 +19776,28 @@
       <c r="P3" t="n">
         <v>382.0511766575976</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.85111712079856 -35.01597527637083, 173.85644337784203 -35.008859766372936)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.8511171207986</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.01597527637083</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.856443377842</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.00885976637294</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.8537802493203</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.01241752137189</v>
       </c>
     </row>
@@ -19847,27 +19854,28 @@
       <c r="P4" t="n">
         <v>393.5283348990396</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.85236187974388 -35.01648652982389, 173.85657420856708 -35.00888393009465)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.8523618797439</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.01648652982389</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.8565742085671</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.00888393009465</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.8544680441555</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.01268522995927</v>
       </c>
     </row>
@@ -19924,27 +19932,28 @@
       <c r="P5" t="n">
         <v>398.5386726390731</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.85420824260234 -35.017035425956664, 173.8557905127063 -35.008784241572585)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.8542082426023</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.01703542595666</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.8557905127063</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.00878424157258</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.8549993776543</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.01290983376462</v>
       </c>
     </row>
@@ -20001,27 +20010,28 @@
       <c r="P6" t="n">
         <v>404.5014850757844</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.8561015565016 -35.016993338620566, 173.85510755575697 -35.0086804365645)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.8561015565016</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.01699333862057</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.855107555757</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.0086804365645</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.8556045561293</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.01283688759253</v>
       </c>
     </row>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13638,6 +13638,137 @@
         <v>400.05</v>
       </c>
       <c r="G507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>386.0076923076923</v>
+      </c>
+      <c r="C508" t="n">
+        <v>396.8276923076923</v>
+      </c>
+      <c r="D508" t="n">
+        <v>399.2176923076924</v>
+      </c>
+      <c r="E508" t="n">
+        <v>406.92</v>
+      </c>
+      <c r="F508" t="n">
+        <v>402.9755555555556</v>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>380.4415384615385</v>
+      </c>
+      <c r="C509" t="n">
+        <v>391.6015384615384</v>
+      </c>
+      <c r="D509" t="n">
+        <v>397.1115384615384</v>
+      </c>
+      <c r="E509" t="n">
+        <v>402.7454545454545</v>
+      </c>
+      <c r="F509" t="n">
+        <v>393.4011111111111</v>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>377.7384615384616</v>
+      </c>
+      <c r="C510" t="n">
+        <v>393.6684615384616</v>
+      </c>
+      <c r="D510" t="n">
+        <v>397.9784615384616</v>
+      </c>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>372.8076923076923</v>
+      </c>
+      <c r="C511" t="n">
+        <v>372.9476923076923</v>
+      </c>
+      <c r="D511" t="n">
+        <v>389.5376923076923</v>
+      </c>
+      <c r="E511" t="n">
+        <v>390.4618181818182</v>
+      </c>
+      <c r="F511" t="n">
+        <v>383.2944444444445</v>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>390.4261538461539</v>
+      </c>
+      <c r="C512" t="n">
+        <v>400.6861538461538</v>
+      </c>
+      <c r="D512" t="n">
+        <v>400.8661538461538</v>
+      </c>
+      <c r="E512" t="n">
+        <v>406.6872727272727</v>
+      </c>
+      <c r="F512" t="n">
+        <v>400.9688888888889</v>
+      </c>
+      <c r="G512" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13654,7 +13785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19502,6 +19633,56 @@
       </c>
       <c r="B584" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -19675,28 +19856,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2108093406452658</v>
+        <v>0.2060739081252658</v>
       </c>
       <c r="J2" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02938933851583869</v>
+        <v>0.02858273859401372</v>
       </c>
       <c r="M2" t="n">
-        <v>6.927414933911121</v>
+        <v>6.918504345452339</v>
       </c>
       <c r="N2" t="n">
-        <v>82.23878353224278</v>
+        <v>81.80452748665152</v>
       </c>
       <c r="O2" t="n">
-        <v>9.068560168639936</v>
+        <v>9.044585534265876</v>
       </c>
       <c r="P2" t="n">
-        <v>378.3621273694258</v>
+        <v>378.4077640947569</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19753,28 +19934,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2427508419131214</v>
+        <v>0.2484320490423877</v>
       </c>
       <c r="J3" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K3" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03852577468418927</v>
+        <v>0.0406014127450961</v>
       </c>
       <c r="M3" t="n">
-        <v>7.304749941246515</v>
+        <v>7.318305711977753</v>
       </c>
       <c r="N3" t="n">
-        <v>82.27168744038757</v>
+        <v>82.46230250750799</v>
       </c>
       <c r="O3" t="n">
-        <v>9.070374162094282</v>
+        <v>9.080875646517134</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0511766575976</v>
+        <v>381.99615724682</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19831,28 +20012,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05562015876645943</v>
+        <v>0.05947865623889562</v>
       </c>
       <c r="J4" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002596174444106092</v>
+        <v>0.00302160579770927</v>
       </c>
       <c r="M4" t="n">
-        <v>6.215508634562844</v>
+        <v>6.19046337132296</v>
       </c>
       <c r="N4" t="n">
-        <v>66.66173254698448</v>
+        <v>66.16876469811947</v>
       </c>
       <c r="O4" t="n">
-        <v>8.164663651797573</v>
+        <v>8.134418522434132</v>
       </c>
       <c r="P4" t="n">
-        <v>393.5283348990396</v>
+        <v>393.491099631123</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19909,28 +20090,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01788118121096775</v>
+        <v>-0.01210434180194738</v>
       </c>
       <c r="J5" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K5" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002978357920286889</v>
+        <v>0.0001377528235467773</v>
       </c>
       <c r="M5" t="n">
-        <v>5.845110017477683</v>
+        <v>5.851721465596014</v>
       </c>
       <c r="N5" t="n">
-        <v>60.61048912288474</v>
+        <v>60.58525613124304</v>
       </c>
       <c r="O5" t="n">
-        <v>7.785273863062542</v>
+        <v>7.783653135337098</v>
       </c>
       <c r="P5" t="n">
-        <v>398.5386726390731</v>
+        <v>398.4832139732644</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19987,28 +20168,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1191425352079734</v>
+        <v>-0.129958761125881</v>
       </c>
       <c r="J6" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003179940264930403</v>
+        <v>0.003839040159216545</v>
       </c>
       <c r="M6" t="n">
-        <v>10.9299506761445</v>
+        <v>10.88322994741369</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3971031556507</v>
+        <v>251.9725138631145</v>
       </c>
       <c r="O6" t="n">
-        <v>15.9184516569813</v>
+        <v>15.87364211084257</v>
       </c>
       <c r="P6" t="n">
-        <v>404.5014850757844</v>
+        <v>404.6044502086983</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20046,7 +20227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37829,6 +38010,183 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-35.01257526883085,173.85265679158547</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-35.01292862012008,173.8533978034424</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-35.01321115560472,173.85417675150413</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-35.01341116320957,173.85490327899217</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-35.01337726926196,173.85566914409065</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-35.01261493401215,173.85261941579319</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-35.012968744342125,173.8533677683259</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-35.01322843557559,173.85416717715435</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-35.01344834413065,173.85489614898836</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-35.01346318483289,173.85567941745566</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-35.012634196507705,173.8526012650707</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-35.01295287537264,173.8533796470986</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-35.01322132289228,173.85417111809426</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-35.0126693338362,173.85256815573436</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-35.01311196070681,173.85326056297038</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-35.01329057530396,173.85413274722816</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-35.0135577493116,173.8548751688546</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-35.01355387625808,173.8556902619197</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-35.012543782255484,173.85268646079024</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-35.01289899646252,173.8534199783051</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-35.01319763077676,173.85418424523095</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-35.01341323601355,173.85490288150083</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-35.013395275937455,173.85567129723913</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G512"/>
+  <dimension ref="A1:G516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13769,6 +13769,114 @@
         <v>400.9688888888889</v>
       </c>
       <c r="G512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>373.8338461538461</v>
+      </c>
+      <c r="C513" t="n">
+        <v>376.1038461538461</v>
+      </c>
+      <c r="D513" t="n">
+        <v>388.2138461538461</v>
+      </c>
+      <c r="E513" t="n">
+        <v>395.9527272727273</v>
+      </c>
+      <c r="F513" t="n">
+        <v>400.0511111111111</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>387.3346153846153</v>
+      </c>
+      <c r="C514" t="n">
+        <v>396.7946153846154</v>
+      </c>
+      <c r="D514" t="n">
+        <v>399.7546153846154</v>
+      </c>
+      <c r="E514" t="n">
+        <v>407.2745454545454</v>
+      </c>
+      <c r="F514" t="n">
+        <v>401.2522222222222</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>391.2261538461539</v>
+      </c>
+      <c r="C515" t="n">
+        <v>390.6061538461539</v>
+      </c>
+      <c r="D515" t="n">
+        <v>398.6861538461538</v>
+      </c>
+      <c r="E515" t="n">
+        <v>402.9418181818182</v>
+      </c>
+      <c r="F515" t="n">
+        <v>396.4022222222222</v>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>380.8492307692308</v>
+      </c>
+      <c r="C516" t="n">
+        <v>388.0592307692308</v>
+      </c>
+      <c r="D516" t="n">
+        <v>400.3792307692308</v>
+      </c>
+      <c r="E516" t="n">
+        <v>398.1854545454545</v>
+      </c>
+      <c r="F516" t="n">
+        <v>401.8944444444445</v>
+      </c>
+      <c r="G516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13785,7 +13893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B589"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19683,6 +19791,46 @@
       </c>
       <c r="B589" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -19856,28 +20004,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060739081252658</v>
+        <v>0.2054136415933381</v>
       </c>
       <c r="J2" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02858273859401372</v>
+        <v>0.02877033323749201</v>
       </c>
       <c r="M2" t="n">
-        <v>6.918504345452339</v>
+        <v>6.910577717460185</v>
       </c>
       <c r="N2" t="n">
-        <v>81.80452748665152</v>
+        <v>81.46987459230404</v>
       </c>
       <c r="O2" t="n">
-        <v>9.044585534265876</v>
+        <v>9.026066396404584</v>
       </c>
       <c r="P2" t="n">
-        <v>378.4077640947569</v>
+        <v>378.4141478800913</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19934,28 +20082,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2484320490423877</v>
+        <v>0.2476524929699275</v>
       </c>
       <c r="J3" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0406014127450961</v>
+        <v>0.04078911393856843</v>
       </c>
       <c r="M3" t="n">
-        <v>7.318305711977753</v>
+        <v>7.306226912951058</v>
       </c>
       <c r="N3" t="n">
-        <v>82.46230250750799</v>
+        <v>82.24512158111114</v>
       </c>
       <c r="O3" t="n">
-        <v>9.080875646517134</v>
+        <v>9.06890961368075</v>
       </c>
       <c r="P3" t="n">
-        <v>381.99615724682</v>
+        <v>382.0037208666183</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20012,28 +20160,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05947865623889562</v>
+        <v>0.06215486971304118</v>
       </c>
       <c r="J4" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00302160579770927</v>
+        <v>0.003342437790366137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.19046337132296</v>
+        <v>6.179287745377709</v>
       </c>
       <c r="N4" t="n">
-        <v>66.16876469811947</v>
+        <v>65.85158572137031</v>
       </c>
       <c r="O4" t="n">
-        <v>8.134418522434132</v>
+        <v>8.114898996375144</v>
       </c>
       <c r="P4" t="n">
-        <v>393.491099631123</v>
+        <v>393.4650036583415</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20090,28 +20238,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01210434180194738</v>
+        <v>-0.007491552405313996</v>
       </c>
       <c r="J5" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001377528235467773</v>
+        <v>5.347945600153725e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.851721465596014</v>
+        <v>5.83119307824016</v>
       </c>
       <c r="N5" t="n">
-        <v>60.58525613124304</v>
+        <v>60.3036033281824</v>
       </c>
       <c r="O5" t="n">
-        <v>7.783653135337098</v>
+        <v>7.765539474381828</v>
       </c>
       <c r="P5" t="n">
-        <v>398.4832139732644</v>
+        <v>398.4385040464707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20168,28 +20316,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.129958761125881</v>
+        <v>-0.1322535108058537</v>
       </c>
       <c r="J6" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003839040159216545</v>
+        <v>0.004048776448391522</v>
       </c>
       <c r="M6" t="n">
-        <v>10.88322994741369</v>
+        <v>10.79731170935315</v>
       </c>
       <c r="N6" t="n">
-        <v>251.9725138631145</v>
+        <v>249.7392082732778</v>
       </c>
       <c r="O6" t="n">
-        <v>15.87364211084257</v>
+        <v>15.80313919046712</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6044502086983</v>
+        <v>404.6264309549147</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20227,7 +20375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G512"/>
+  <dimension ref="A1:G516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38187,6 +38335,154 @@
         </is>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-35.01266202132582,173.85257504619764</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-35.013087729095005,173.8532787017005</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-35.01330143681754,173.85412672915436</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-35.013508844095135,173.85488454719209</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-35.0134035115487,173.85567228201282</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-35.01256581299202,173.8526657016467</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-35.012928874070866,173.8533976133468</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-35.013206750411165,173.8541791922983</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-35.01340800542228,173.85490388454537</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-35.013392733466674,173.85567099322307</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-35.012538081342754,173.8526918326494</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-35.01297638648779,173.85336204776908</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-35.01321551662009,173.8541743351876</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-35.013446595202325,173.85489648437195</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-35.013436254583986,173.85567619726527</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-35.01261202874083,173.85262215338005</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-35.01299594069397,173.85334741038895</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-35.01320162574464,173.85418203173185</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-35.01348895813266,173.85488836063226</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-35.01338697053288,173.85567030412014</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G516"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13877,6 +13877,33 @@
         <v>401.8944444444445</v>
       </c>
       <c r="G516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>364.3261538461539</v>
+      </c>
+      <c r="C517" t="n">
+        <v>370.7861538461539</v>
+      </c>
+      <c r="D517" t="n">
+        <v>389.3661538461538</v>
+      </c>
+      <c r="E517" t="n">
+        <v>395.65</v>
+      </c>
+      <c r="F517" t="n">
+        <v>384.1933333333333</v>
+      </c>
+      <c r="G517" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13893,7 +13920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19831,6 +19858,16 @@
       </c>
       <c r="B593" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -20004,28 +20041,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2054136415933381</v>
+        <v>0.1974566255729817</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K2" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02877033323749201</v>
+        <v>0.02649712794466919</v>
       </c>
       <c r="M2" t="n">
-        <v>6.910577717460185</v>
+        <v>6.942905913836712</v>
       </c>
       <c r="N2" t="n">
-        <v>81.46987459230404</v>
+        <v>82.11151468293755</v>
       </c>
       <c r="O2" t="n">
-        <v>9.026066396404584</v>
+        <v>9.061540414462518</v>
       </c>
       <c r="P2" t="n">
-        <v>378.4141478800913</v>
+        <v>378.4916670058686</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20082,28 +20119,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2476524929699275</v>
+        <v>0.2407808035864691</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K3" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04078911393856843</v>
+        <v>0.03850709810317143</v>
       </c>
       <c r="M3" t="n">
-        <v>7.306226912951058</v>
+        <v>7.333005126028887</v>
       </c>
       <c r="N3" t="n">
-        <v>82.24512158111114</v>
+        <v>82.71857547715285</v>
       </c>
       <c r="O3" t="n">
-        <v>9.06890961368075</v>
+        <v>9.094975287330518</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0037208666183</v>
+        <v>382.0710101726987</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20160,28 +20197,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06215486971304118</v>
+        <v>0.05996930437448541</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K4" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003342437790366137</v>
+        <v>0.003121876776394972</v>
       </c>
       <c r="M4" t="n">
-        <v>6.179287745377709</v>
+        <v>6.180293196545056</v>
       </c>
       <c r="N4" t="n">
-        <v>65.85158572137031</v>
+        <v>65.78273014975463</v>
       </c>
       <c r="O4" t="n">
-        <v>8.114898996375144</v>
+        <v>8.11065534650281</v>
       </c>
       <c r="P4" t="n">
-        <v>393.4650036583415</v>
+        <v>393.4863173159822</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20238,28 +20275,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.007491552405313996</v>
+        <v>-0.008514617778712777</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K5" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L5" t="n">
-        <v>5.347945600153725e-05</v>
+        <v>6.935962536824825e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.83119307824016</v>
+        <v>5.825362804510882</v>
       </c>
       <c r="N5" t="n">
-        <v>60.3036033281824</v>
+        <v>60.19002026920248</v>
       </c>
       <c r="O5" t="n">
-        <v>7.765539474381828</v>
+        <v>7.75822275197113</v>
       </c>
       <c r="P5" t="n">
-        <v>398.4385040464707</v>
+        <v>398.4484399070621</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20316,28 +20353,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1322535108058537</v>
+        <v>-0.139433468688844</v>
       </c>
       <c r="J6" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K6" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004048776448391522</v>
+        <v>0.004507125847886484</v>
       </c>
       <c r="M6" t="n">
-        <v>10.79731170935315</v>
+        <v>10.80431356864686</v>
       </c>
       <c r="N6" t="n">
-        <v>249.7392082732778</v>
+        <v>249.825347517091</v>
       </c>
       <c r="O6" t="n">
-        <v>15.80313919046712</v>
+        <v>15.8058643394498</v>
       </c>
       <c r="P6" t="n">
-        <v>404.6264309549147</v>
+        <v>404.695380548753</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20375,7 +20412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G516"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21215,7 +21252,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.01303876977374,173.85331535047942</t>
+          <t>-35.013038769773736,173.85331535047942</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -24173,7 +24210,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>-35.01342588529148,173.8556749573555</t>
+          <t>-35.01342588529149,173.8556749573555</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -24583,7 +24620,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-35.013289079558014,173.8541335759808</t>
+          <t>-35.01328907955802,173.8541335759808</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -30490,7 +30527,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-35.0132718122121,173.85414314335083</t>
+          <t>-35.013271812212096,173.85414314335083</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -38483,6 +38520,43 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-35.01272977440593,173.8525112034777</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-35.013128556081625,173.8532481403877</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-35.01329198269358,173.85413196743139</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-35.01351154035957,173.85488403014162</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-35.013545810145274,173.85568929740992</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G517"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13904,6 +13904,87 @@
         <v>384.1933333333333</v>
       </c>
       <c r="G517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>381.2646153846154</v>
+      </c>
+      <c r="C518" t="n">
+        <v>385.2546153846154</v>
+      </c>
+      <c r="D518" t="n">
+        <v>392.2246153846153</v>
+      </c>
+      <c r="E518" t="n">
+        <v>398.0372727272728</v>
+      </c>
+      <c r="F518" t="n">
+        <v>392.2366666666667</v>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="C519" t="n">
+        <v>392.09</v>
+      </c>
+      <c r="D519" t="n">
+        <v>404.53</v>
+      </c>
+      <c r="E519" t="n">
+        <v>405.6672727272728</v>
+      </c>
+      <c r="F519" t="n">
+        <v>412.0355555555556</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>376.4323076923077</v>
+      </c>
+      <c r="C520" t="n">
+        <v>389.0723076923077</v>
+      </c>
+      <c r="D520" t="n">
+        <v>395.7223076923077</v>
+      </c>
+      <c r="E520" t="n">
+        <v>399.6054545454546</v>
+      </c>
+      <c r="F520" t="n">
+        <v>387.1833333333333</v>
+      </c>
+      <c r="G520" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13920,7 +14001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19868,6 +19949,36 @@
       </c>
       <c r="B594" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -20041,28 +20152,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1974566255729817</v>
+        <v>0.1943168250402605</v>
       </c>
       <c r="J2" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K2" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02649712794466919</v>
+        <v>0.02597143634611265</v>
       </c>
       <c r="M2" t="n">
-        <v>6.942905913836712</v>
+        <v>6.923762539592958</v>
       </c>
       <c r="N2" t="n">
-        <v>82.11151468293755</v>
+        <v>81.70298145715765</v>
       </c>
       <c r="O2" t="n">
-        <v>9.061540414462518</v>
+        <v>9.038970154677891</v>
       </c>
       <c r="P2" t="n">
-        <v>378.4916670058686</v>
+        <v>378.5223130150794</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20119,28 +20230,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2407808035864691</v>
+        <v>0.2413784678605332</v>
       </c>
       <c r="J3" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K3" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03850709810317143</v>
+        <v>0.03913011639727293</v>
       </c>
       <c r="M3" t="n">
-        <v>7.333005126028887</v>
+        <v>7.302544311549713</v>
       </c>
       <c r="N3" t="n">
-        <v>82.71857547715285</v>
+        <v>82.25203902559106</v>
       </c>
       <c r="O3" t="n">
-        <v>9.094975287330518</v>
+        <v>9.069290988031593</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0710101726987</v>
+        <v>382.0651363310176</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20197,28 +20308,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05996930437448541</v>
+        <v>0.06275148250678263</v>
       </c>
       <c r="J4" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003121876776394972</v>
+        <v>0.003448504755466542</v>
       </c>
       <c r="M4" t="n">
-        <v>6.180293196545056</v>
+        <v>6.166368708581786</v>
       </c>
       <c r="N4" t="n">
-        <v>65.78273014975463</v>
+        <v>65.580364381452</v>
       </c>
       <c r="O4" t="n">
-        <v>8.11065534650281</v>
+        <v>8.098170434206235</v>
       </c>
       <c r="P4" t="n">
-        <v>393.4863173159822</v>
+        <v>393.4591418358124</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20275,28 +20386,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.008514617778712777</v>
+        <v>-0.005170410010850414</v>
       </c>
       <c r="J5" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K5" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L5" t="n">
-        <v>6.935962536824825e-05</v>
+        <v>2.584850704279162e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.825362804510882</v>
+        <v>5.804095562738441</v>
       </c>
       <c r="N5" t="n">
-        <v>60.19002026920248</v>
+        <v>59.92945797466833</v>
       </c>
       <c r="O5" t="n">
-        <v>7.75822275197113</v>
+        <v>7.741411885093592</v>
       </c>
       <c r="P5" t="n">
-        <v>398.4484399070621</v>
+        <v>398.4159181435876</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20353,28 +20464,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.139433468688844</v>
+        <v>-0.1443376182464593</v>
       </c>
       <c r="J6" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K6" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004507125847886484</v>
+        <v>0.004876620147004185</v>
       </c>
       <c r="M6" t="n">
-        <v>10.80431356864686</v>
+        <v>10.8022489722321</v>
       </c>
       <c r="N6" t="n">
-        <v>249.825347517091</v>
+        <v>249.0173288789129</v>
       </c>
       <c r="O6" t="n">
-        <v>15.8058643394498</v>
+        <v>15.78028291504664</v>
       </c>
       <c r="P6" t="n">
-        <v>404.695380548753</v>
+        <v>404.7425567951091</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20412,7 +20523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G517"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38557,6 +38668,117 @@
         </is>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-35.012609068653,173.85262494261934</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-35.01301747335149,173.8533312920216</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-35.01326853040651,173.8541449617102</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-35.01349027792578,173.85488810754163</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-35.01347363388905,173.85568066690445</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-35.01258031194464,173.85265203955197</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-35.01296499413917,173.85337057555395</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-35.01316757069315,173.85420090066827</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-35.013422320724715,173.8549011393706</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-35.01329597001811,173.8556594227453</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-35.01264350433755,173.85259249445673</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-35.01298816271486,173.85335323262768</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-35.013239833539885,173.85416086185788</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-35.013476310790004,173.85489078595444</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-35.01351897960182,173.85568608913474</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:G524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13985,6 +13985,114 @@
         <v>387.1833333333333</v>
       </c>
       <c r="G520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>392.0638461538462</v>
+      </c>
+      <c r="C521" t="n">
+        <v>388.3938461538461</v>
+      </c>
+      <c r="D521" t="n">
+        <v>396.1138461538461</v>
+      </c>
+      <c r="E521" t="n">
+        <v>400.5281818181818</v>
+      </c>
+      <c r="F521" t="n">
+        <v>396.67</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>385.2815384615385</v>
+      </c>
+      <c r="C522" t="n">
+        <v>386.0415384615384</v>
+      </c>
+      <c r="D522" t="n">
+        <v>395.9515384615385</v>
+      </c>
+      <c r="E522" t="n">
+        <v>393.4618181818182</v>
+      </c>
+      <c r="F522" t="n">
+        <v>400.2111111111111</v>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>372.6676923076923</v>
+      </c>
+      <c r="C523" t="n">
+        <v>383.4976923076923</v>
+      </c>
+      <c r="D523" t="n">
+        <v>398.1576923076923</v>
+      </c>
+      <c r="E523" t="n">
+        <v>393.5572727272727</v>
+      </c>
+      <c r="F523" t="n">
+        <v>393.9311111111111</v>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>384.0469230769231</v>
+      </c>
+      <c r="C524" t="n">
+        <v>390.7669230769231</v>
+      </c>
+      <c r="D524" t="n">
+        <v>397.4969230769231</v>
+      </c>
+      <c r="E524" t="n">
+        <v>403.7790909090909</v>
+      </c>
+      <c r="F524" t="n">
+        <v>394.63</v>
+      </c>
+      <c r="G524" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14001,7 +14109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B597"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19979,6 +20087,46 @@
       </c>
       <c r="B597" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -20152,28 +20300,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1943168250402605</v>
+        <v>0.1942537819243799</v>
       </c>
       <c r="J2" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K2" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02597143634611265</v>
+        <v>0.02625746969628673</v>
       </c>
       <c r="M2" t="n">
-        <v>6.923762539592958</v>
+        <v>6.91064818545007</v>
       </c>
       <c r="N2" t="n">
-        <v>81.70298145715765</v>
+        <v>81.41598013190129</v>
       </c>
       <c r="O2" t="n">
-        <v>9.038970154677891</v>
+        <v>9.02308041258091</v>
       </c>
       <c r="P2" t="n">
-        <v>378.5223130150794</v>
+        <v>378.5229621593932</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20230,28 +20378,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2413784678605332</v>
+        <v>0.2396731819551974</v>
       </c>
       <c r="J3" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K3" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03913011639727293</v>
+        <v>0.03917248297581255</v>
       </c>
       <c r="M3" t="n">
-        <v>7.302544311549713</v>
+        <v>7.263429634450365</v>
       </c>
       <c r="N3" t="n">
-        <v>82.25203902559106</v>
+        <v>81.64281376496417</v>
       </c>
       <c r="O3" t="n">
-        <v>9.069290988031593</v>
+        <v>9.035641303469509</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0651363310176</v>
+        <v>382.0818630622716</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20308,28 +20456,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06275148250678263</v>
+        <v>0.0654870357633051</v>
       </c>
       <c r="J4" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K4" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003448504755466542</v>
+        <v>0.003812801164636559</v>
       </c>
       <c r="M4" t="n">
-        <v>6.166368708581786</v>
+        <v>6.128665221721511</v>
       </c>
       <c r="N4" t="n">
-        <v>65.580364381452</v>
+        <v>65.0832839585369</v>
       </c>
       <c r="O4" t="n">
-        <v>8.098170434206235</v>
+        <v>8.067421146719495</v>
       </c>
       <c r="P4" t="n">
-        <v>393.4591418358124</v>
+        <v>393.4323464454872</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20386,28 +20534,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.005170410010850414</v>
+        <v>-0.005843687725695137</v>
       </c>
       <c r="J5" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K5" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L5" t="n">
-        <v>2.584850704279162e-05</v>
+        <v>3.347077389459496e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.804095562738441</v>
+        <v>5.792413765960378</v>
       </c>
       <c r="N5" t="n">
-        <v>59.92945797466833</v>
+        <v>59.59769811992994</v>
       </c>
       <c r="O5" t="n">
-        <v>7.741411885093592</v>
+        <v>7.7199545413124</v>
       </c>
       <c r="P5" t="n">
-        <v>398.4159181435876</v>
+        <v>398.4224191563067</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20464,28 +20612,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1443376182464593</v>
+        <v>-0.1518767739606488</v>
       </c>
       <c r="J6" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K6" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004876620147004185</v>
+        <v>0.005487129753133146</v>
       </c>
       <c r="M6" t="n">
-        <v>10.8022489722321</v>
+        <v>10.73890324749859</v>
       </c>
       <c r="N6" t="n">
-        <v>249.0173288789129</v>
+        <v>247.0347442541164</v>
       </c>
       <c r="O6" t="n">
-        <v>15.78028291504664</v>
+        <v>15.71733896860777</v>
       </c>
       <c r="P6" t="n">
-        <v>404.7425567951091</v>
+        <v>404.8152762204931</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20523,7 +20671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:G524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38779,6 +38927,154 @@
         </is>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-35.012532111829074,173.85269745760502</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-35.01299337165762,173.85334933345197</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-35.01323662115684,173.85416264175058</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-35.01346809244631,173.8548923619477</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-35.01343385169985,173.85567590993998</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-35.01258044350411,173.85265191558585</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-35.01301143168724,173.85333581453747</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-35.01323795281269,173.8541619039169</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-35.01353102957424,173.854880292782</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-35.01340207580051,173.85567211033313</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-35.01267033149502,173.85256721565605</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-35.01303096226699,173.8533211948283</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-35.01321985239074,173.85417193285818</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-35.013530179400775,173.85488045581604</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-35.01345842891704,173.85567884876582</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-35.01258924154457,173.85264362535204</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-35.01297515216908,173.85336297172307</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-35.01322527368178,173.85416892907182</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-35.01343913796624,173.85489791441015</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-35.01345215748923,173.85567809885833</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G524"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14093,6 +14093,137 @@
         <v>394.63</v>
       </c>
       <c r="G524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>375.4992307692308</v>
+      </c>
+      <c r="C525" t="n">
+        <v>379.5692307692308</v>
+      </c>
+      <c r="D525" t="n">
+        <v>396.1192307692308</v>
+      </c>
+      <c r="E525" t="n">
+        <v>394.8309090909091</v>
+      </c>
+      <c r="F525" t="n">
+        <v>387.8933333333333</v>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="n">
+        <v>391.2746153846153</v>
+      </c>
+      <c r="E526" t="n">
+        <v>377.9445454545455</v>
+      </c>
+      <c r="F526" t="n">
+        <v>362.7422222222222</v>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:17:38+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>355.8946153846153</v>
+      </c>
+      <c r="C527" t="n">
+        <v>359.0146153846153</v>
+      </c>
+      <c r="D527" t="n">
+        <v>374.5646153846154</v>
+      </c>
+      <c r="E527" t="n">
+        <v>372.3245454545454</v>
+      </c>
+      <c r="F527" t="n">
+        <v>369.3422222222222</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>357.3530769230769</v>
+      </c>
+      <c r="C528" t="n">
+        <v>359.6430769230769</v>
+      </c>
+      <c r="D528" t="n">
+        <v>378.8330769230769</v>
+      </c>
+      <c r="E528" t="n">
+        <v>386.1263636363637</v>
+      </c>
+      <c r="F528" t="n">
+        <v>374.9088888888889</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>378.17</v>
+      </c>
+      <c r="C529" t="n">
+        <v>383.12</v>
+      </c>
+      <c r="D529" t="n">
+        <v>384</v>
+      </c>
+      <c r="E529" t="n">
+        <v>388.5672727272727</v>
+      </c>
+      <c r="F529" t="n">
+        <v>396.2655555555555</v>
+      </c>
+      <c r="G529" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14109,7 +14240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20127,6 +20258,56 @@
       </c>
       <c r="B601" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -20300,28 +20481,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1942537819243799</v>
+        <v>0.1680206728983809</v>
       </c>
       <c r="J2" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K2" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02625746969628673</v>
+        <v>0.01933912731710796</v>
       </c>
       <c r="M2" t="n">
-        <v>6.91064818545007</v>
+        <v>7.010173643549924</v>
       </c>
       <c r="N2" t="n">
-        <v>81.41598013190129</v>
+        <v>83.97761852761813</v>
       </c>
       <c r="O2" t="n">
-        <v>9.02308041258091</v>
+        <v>9.163930299146656</v>
       </c>
       <c r="P2" t="n">
-        <v>378.5229621593932</v>
+        <v>378.7811291463871</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20378,28 +20559,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2396731819551974</v>
+        <v>0.2129532661299767</v>
       </c>
       <c r="J3" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K3" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03917248297581255</v>
+        <v>0.03036483998562478</v>
       </c>
       <c r="M3" t="n">
-        <v>7.263429634450365</v>
+        <v>7.373157287827198</v>
       </c>
       <c r="N3" t="n">
-        <v>81.64281376496417</v>
+        <v>84.56534484856674</v>
       </c>
       <c r="O3" t="n">
-        <v>9.035641303469509</v>
+        <v>9.195941759741997</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0818630622716</v>
+        <v>382.3461741857463</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20456,28 +20637,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0654870357633051</v>
+        <v>0.04699778851817547</v>
       </c>
       <c r="J4" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K4" t="n">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003812801164636559</v>
+        <v>0.001956965415890632</v>
       </c>
       <c r="M4" t="n">
-        <v>6.128665221721511</v>
+        <v>6.191456333560659</v>
       </c>
       <c r="N4" t="n">
-        <v>65.0832839585369</v>
+        <v>66.0615774910124</v>
       </c>
       <c r="O4" t="n">
-        <v>8.067421146719495</v>
+        <v>8.127827353666685</v>
       </c>
       <c r="P4" t="n">
-        <v>393.4323464454872</v>
+        <v>393.6145510661765</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20534,28 +20715,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.005843687725695137</v>
+        <v>-0.03250748995872294</v>
       </c>
       <c r="J5" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K5" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L5" t="n">
-        <v>3.347077389459496e-05</v>
+        <v>0.001009593129907338</v>
       </c>
       <c r="M5" t="n">
-        <v>5.792413765960378</v>
+        <v>5.909643748767587</v>
       </c>
       <c r="N5" t="n">
-        <v>59.59769811992994</v>
+        <v>61.68640612693843</v>
       </c>
       <c r="O5" t="n">
-        <v>7.7199545413124</v>
+        <v>7.854069399167442</v>
       </c>
       <c r="P5" t="n">
-        <v>398.4224191563067</v>
+        <v>398.6839827327496</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20612,28 +20793,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1518767739606488</v>
+        <v>-0.1967269883701719</v>
       </c>
       <c r="J6" t="n">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K6" t="n">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005487129753133146</v>
+        <v>0.009108624261895626</v>
       </c>
       <c r="M6" t="n">
-        <v>10.73890324749859</v>
+        <v>10.81823745013158</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0347442541164</v>
+        <v>251.434395653718</v>
       </c>
       <c r="O6" t="n">
-        <v>15.71733896860777</v>
+        <v>15.85668299657018</v>
       </c>
       <c r="P6" t="n">
-        <v>404.8152762204931</v>
+        <v>405.2501968024129</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20671,7 +20852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G524"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39075,6 +39256,183 @@
         </is>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-35.01265015357015,173.85258622899337</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-35.01306112333732,173.8532986175984</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-35.0132365769787,173.85416266622846</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-35.01351883565764,173.8548826311551</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-35.01351260846939,173.85568532730383</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-35.01327632469476,173.8541406431065</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-35.01366923538841,173.85485378962161</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-35.013738300094616,173.85571231455634</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:17:38+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-35.012789858643096,173.85245458688084</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-35.013218932935565,173.85318048806454</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-35.0134134220979,173.8540646810085</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-35.013719290360065,173.85484419076442</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>-35.013679075487005,173.85570523271176</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-35.01277946545877,173.85246438025118</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-35.01321410787672,173.8531840999057</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-35.01337840145651,173.85408408505938</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-35.01359636338001,173.85486776399756</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-35.01362912341809,173.85569925964947</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-35.01263112130582,173.85260416278192</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-35.01303386202937,173.8533190241966</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-35.013336009373056,173.85410757341563</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-35.01357462323044,173.85487193301518</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-35.01343748095221,173.85567634390847</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14224,6 +14224,31 @@
         <v>396.2655555555555</v>
       </c>
       <c r="G529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>393.6123076923077</v>
+      </c>
+      <c r="C530" t="n">
+        <v>388.8023076923077</v>
+      </c>
+      <c r="D530" t="n">
+        <v>401.6523076923077</v>
+      </c>
+      <c r="E530" t="n">
+        <v>396.009090909091</v>
+      </c>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14240,7 +14265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B606"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20308,6 +20333,16 @@
       </c>
       <c r="B606" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -20481,28 +20516,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1680206728983809</v>
+        <v>0.1720980864217221</v>
       </c>
       <c r="J2" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01933912731710796</v>
+        <v>0.02029831766524526</v>
       </c>
       <c r="M2" t="n">
-        <v>7.010173643549924</v>
+        <v>7.014996960443372</v>
       </c>
       <c r="N2" t="n">
-        <v>83.97761852761813</v>
+        <v>84.03005213630871</v>
       </c>
       <c r="O2" t="n">
-        <v>9.163930299146656</v>
+        <v>9.1667907217471</v>
       </c>
       <c r="P2" t="n">
-        <v>378.7811291463871</v>
+        <v>378.7408087539303</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20559,28 +20594,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2129532661299767</v>
+        <v>0.2132887688930351</v>
       </c>
       <c r="J3" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K3" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03036483998562478</v>
+        <v>0.03057510091568683</v>
       </c>
       <c r="M3" t="n">
-        <v>7.373157287827198</v>
+        <v>7.359605164280611</v>
       </c>
       <c r="N3" t="n">
-        <v>84.56534484856674</v>
+        <v>84.39405752094841</v>
       </c>
       <c r="O3" t="n">
-        <v>9.195941759741997</v>
+        <v>9.18662383691356</v>
       </c>
       <c r="P3" t="n">
-        <v>382.3461741857463</v>
+        <v>382.3428393741112</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20637,28 +20672,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04699778851817547</v>
+        <v>0.04947823680761908</v>
       </c>
       <c r="J4" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K4" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001956965415890632</v>
+        <v>0.002173970447058804</v>
       </c>
       <c r="M4" t="n">
-        <v>6.191456333560659</v>
+        <v>6.190048828817534</v>
       </c>
       <c r="N4" t="n">
-        <v>66.0615774910124</v>
+        <v>66.02170390300739</v>
       </c>
       <c r="O4" t="n">
-        <v>8.127827353666685</v>
+        <v>8.125374077727585</v>
       </c>
       <c r="P4" t="n">
-        <v>393.6145510661765</v>
+        <v>393.5899980142174</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20715,28 +20750,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03250748995872294</v>
+        <v>-0.03319010041163875</v>
       </c>
       <c r="J5" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K5" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001009593129907338</v>
+        <v>0.001056509667724748</v>
       </c>
       <c r="M5" t="n">
-        <v>5.909643748767587</v>
+        <v>5.902088048136742</v>
       </c>
       <c r="N5" t="n">
-        <v>61.68640612693843</v>
+        <v>61.56605678640293</v>
       </c>
       <c r="O5" t="n">
-        <v>7.854069399167442</v>
+        <v>7.846404067240161</v>
       </c>
       <c r="P5" t="n">
-        <v>398.6839827327496</v>
+        <v>398.6907124649336</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20796,7 +20831,7 @@
         <v>-0.1967269883701719</v>
       </c>
       <c r="J6" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K6" t="n">
         <v>453</v>
@@ -20852,7 +20887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39433,6 +39468,39 @@
         </is>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-35.01252107727283,173.85270785524804</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-35.01299023566149,173.85335168091498</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-35.0131911807653,173.85418781899995</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-35.013508342087945,173.85488464345974</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14249,6 +14249,56 @@
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>377.0938461538461</v>
+      </c>
+      <c r="C531" t="n">
+        <v>382.0438461538461</v>
+      </c>
+      <c r="D531" t="n">
+        <v>391.8938461538461</v>
+      </c>
+      <c r="E531" t="n">
+        <v>395.5018181818182</v>
+      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="n">
+        <v>376.7761538461539</v>
+      </c>
+      <c r="D532" t="n">
+        <v>391.6861538461538</v>
+      </c>
+      <c r="E532" t="n">
+        <v>390.9518181818182</v>
+      </c>
+      <c r="F532" t="n">
+        <v>398.61</v>
+      </c>
+      <c r="G532" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14265,7 +14315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20343,6 +20393,26 @@
       </c>
       <c r="B607" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -20887,7 +20957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39501,6 +39571,72 @@
         </is>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-35.01263879012462,173.85259693658182</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-35.013042124284894,173.85331283944262</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-35.01327124420729,173.8541434580669</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-35.013512860152666,173.85488377705087</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-35.013082567401085,173.85328256551833</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-35.013272948221726,173.85414251391873</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-35.013553385087846,173.85487600576295</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-35.01341644325299,173.85567382832252</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -20586,28 +20586,28 @@
         <v>0.0723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1720980864217221</v>
+        <v>0.1697055329615087</v>
       </c>
       <c r="J2" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K2" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02029831766524526</v>
+        <v>0.01981178429328412</v>
       </c>
       <c r="M2" t="n">
-        <v>7.014996960443372</v>
+        <v>7.014533677568085</v>
       </c>
       <c r="N2" t="n">
-        <v>84.03005213630871</v>
+        <v>83.93066046609005</v>
       </c>
       <c r="O2" t="n">
-        <v>9.1667907217471</v>
+        <v>9.161367827245561</v>
       </c>
       <c r="P2" t="n">
-        <v>378.7408087539303</v>
+        <v>378.7645214977742</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20664,28 +20664,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2132887688930351</v>
+        <v>0.2069905899778858</v>
       </c>
       <c r="J3" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K3" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03057510091568683</v>
+        <v>0.02896427273008273</v>
       </c>
       <c r="M3" t="n">
-        <v>7.359605164280611</v>
+        <v>7.369764037455824</v>
       </c>
       <c r="N3" t="n">
-        <v>84.39405752094841</v>
+        <v>84.36996446003469</v>
       </c>
       <c r="O3" t="n">
-        <v>9.18662383691356</v>
+        <v>9.185312431269537</v>
       </c>
       <c r="P3" t="n">
-        <v>382.3428393741112</v>
+        <v>382.4056235378524</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20742,28 +20742,28 @@
         <v>0.0703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04947823680761908</v>
+        <v>0.04724051362123202</v>
       </c>
       <c r="J4" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002173970447058804</v>
+        <v>0.0019965184523969</v>
       </c>
       <c r="M4" t="n">
-        <v>6.190048828817534</v>
+        <v>6.179930712557243</v>
       </c>
       <c r="N4" t="n">
-        <v>66.02170390300739</v>
+        <v>65.79639122348678</v>
       </c>
       <c r="O4" t="n">
-        <v>8.125374077727585</v>
+        <v>8.111497471089217</v>
       </c>
       <c r="P4" t="n">
-        <v>393.5899980142174</v>
+        <v>393.6122098194854</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20820,28 +20820,28 @@
         <v>0.1287</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03319010041163875</v>
+        <v>-0.03660197534146885</v>
       </c>
       <c r="J5" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K5" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001056509667724748</v>
+        <v>0.001292673452489956</v>
       </c>
       <c r="M5" t="n">
-        <v>5.902088048136742</v>
+        <v>5.900804842812096</v>
       </c>
       <c r="N5" t="n">
-        <v>61.56605678640293</v>
+        <v>61.42017776142094</v>
       </c>
       <c r="O5" t="n">
-        <v>7.846404067240161</v>
+        <v>7.837102638183382</v>
       </c>
       <c r="P5" t="n">
-        <v>398.6907124649336</v>
+        <v>398.7244512312319</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20898,28 +20898,28 @@
         <v>0.0486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1967269883701719</v>
+        <v>-0.1973246623529208</v>
       </c>
       <c r="J6" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K6" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009108624261895626</v>
+        <v>0.009203034922019349</v>
       </c>
       <c r="M6" t="n">
-        <v>10.81823745013158</v>
+        <v>10.79708363062937</v>
       </c>
       <c r="N6" t="n">
-        <v>251.434395653718</v>
+        <v>250.8854687829875</v>
       </c>
       <c r="O6" t="n">
-        <v>15.85668299657018</v>
+        <v>15.83936453217071</v>
       </c>
       <c r="P6" t="n">
-        <v>405.2501968024129</v>
+        <v>405.2560426927499</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -20580,10 +20580,10 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0598</v>
+        <v>0.0562</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0723</v>
+        <v>0.0742</v>
       </c>
       <c r="I2" t="n">
         <v>0.1697042719849579</v>
@@ -20655,13 +20655,13 @@
         <v>0.2495753188283091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0588</v>
+        <v>0.0624</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0888</v>
       </c>
       <c r="I3" t="n">
         <v>0.2069838891418936</v>
@@ -20733,13 +20733,13 @@
         <v>0.5013961705058102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0612</v>
+        <v>0.0521</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0703</v>
+        <v>0.1052</v>
       </c>
       <c r="I4" t="n">
         <v>0.04723283641827213</v>
@@ -20811,13 +20811,13 @@
         <v>0.7512473536630524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0951</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1287</v>
+        <v>0.1138</v>
       </c>
       <c r="I5" t="n">
         <v>-0.03658807428959691</v>
@@ -20889,13 +20889,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0392</v>
+        <v>0.0328</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0486</v>
+        <v>0.0477</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1973465735249416</v>

--- a/data/nzd0048/nzd0048.xlsx
+++ b/data/nzd0048/nzd0048.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G536"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14915,6 +14915,33 @@
       <c r="G536" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="C537" t="n">
+        <v>382.13</v>
+      </c>
+      <c r="D537" t="n">
+        <v>392.42</v>
+      </c>
+      <c r="E537" t="n">
+        <v>394.46</v>
+      </c>
+      <c r="F537" t="n">
+        <v>395.81</v>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14929,7 +14956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B613"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21067,6 +21094,16 @@
       </c>
       <c r="B613" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -21234,34 +21271,34 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0562</v>
+        <v>0.0564</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.0745</v>
       </c>
       <c r="I2" t="n">
-        <v>0.178265712698853</v>
+        <v>0.1762277302990946</v>
       </c>
       <c r="J2" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K2" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1302943084870237</v>
+        <v>0.12753510495594</v>
       </c>
       <c r="M2" t="n">
-        <v>2.722228714731515</v>
+        <v>2.727275793021985</v>
       </c>
       <c r="N2" t="n">
-        <v>12.39771414354795</v>
+        <v>12.44010125473681</v>
       </c>
       <c r="O2" t="n">
-        <v>3.521038787566525</v>
+        <v>3.527052771753892</v>
       </c>
       <c r="P2" t="n">
-        <v>378.4629806231653</v>
+        <v>378.4834394263084</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21315,31 +21352,31 @@
         <v>0.0624</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0887</v>
+        <v>0.0888</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2355375978124878</v>
+        <v>0.2336870336451437</v>
       </c>
       <c r="J3" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2369420741404757</v>
+        <v>0.2338392056660958</v>
       </c>
       <c r="M3" t="n">
-        <v>2.627848912095996</v>
+        <v>2.633043777926482</v>
       </c>
       <c r="N3" t="n">
-        <v>10.44226996409079</v>
+        <v>10.47680911492028</v>
       </c>
       <c r="O3" t="n">
-        <v>3.231450133313338</v>
+        <v>3.236789939881838</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3445394172214</v>
+        <v>381.3631167749098</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21390,34 +21427,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0521</v>
+        <v>0.0523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1049</v>
+        <v>0.1053</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04345938453659247</v>
+        <v>0.04279540432158681</v>
       </c>
       <c r="J4" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K4" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01321439493871523</v>
+        <v>0.01285507729758006</v>
       </c>
       <c r="M4" t="n">
-        <v>2.218545469162081</v>
+        <v>2.218252529626781</v>
       </c>
       <c r="N4" t="n">
-        <v>8.243312771602245</v>
+        <v>8.234887935432052</v>
       </c>
       <c r="O4" t="n">
-        <v>2.87111699023259</v>
+        <v>2.869649444693908</v>
       </c>
       <c r="P4" t="n">
-        <v>393.2131122198338</v>
+        <v>393.2197777536045</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21468,34 +21505,34 @@
         <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.0808</v>
       </c>
       <c r="H5" t="n">
         <v>0.1137</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03283414298355735</v>
+        <v>-0.03399884997051975</v>
       </c>
       <c r="J5" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K5" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007710196237169287</v>
+        <v>0.00827102719106243</v>
       </c>
       <c r="M5" t="n">
-        <v>2.297113128236455</v>
+        <v>2.299218102603345</v>
       </c>
       <c r="N5" t="n">
-        <v>8.109303959315248</v>
+        <v>8.115573374459913</v>
       </c>
       <c r="O5" t="n">
-        <v>2.847683964086473</v>
+        <v>2.848784543355273</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7161221949854</v>
+        <v>398.7278144014384</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21546,34 +21583,34 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0329</v>
+        <v>0.0328</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0477</v>
+        <v>0.0476</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2691843892175281</v>
+        <v>-0.2709001122369487</v>
       </c>
       <c r="J6" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07086237669533491</v>
+        <v>0.07189471163328887</v>
       </c>
       <c r="M6" t="n">
-        <v>5.873208151421808</v>
+        <v>5.869415439295662</v>
       </c>
       <c r="N6" t="n">
-        <v>55.52942602953987</v>
+        <v>55.47226169738492</v>
       </c>
       <c r="O6" t="n">
-        <v>7.451806896957265</v>
+        <v>7.447970307230348</v>
       </c>
       <c r="P6" t="n">
-        <v>407.8807723764711</v>
+        <v>407.8979960971012</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21611,7 +21648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G536"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41451,6 +41488,43 @@
         </is>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-35.012638033657886,173.85259764938792</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-35.013041462831985,173.85331333457665</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-35.01326692737069,173.85414584990875</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-35.013522139188844,173.85488199765172</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-35.013441568846375,173.85567683271915</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
